--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Project\XTrip\Document\Requirements\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Long" sheetId="2" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Task</t>
   </si>
@@ -56,6 +51,24 @@
   </si>
   <si>
     <t>Long</t>
+  </si>
+  <si>
+    <t>Nghia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sau khi họp bàn tối nay, thì tổng cộng những field cần thêm trong db là: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>address, phone, fax, postCode, email, website.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -114,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -136,6 +149,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -197,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,7 +248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1847,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1905,16 +1921,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Long" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -69,6 +69,9 @@
       </rPr>
       <t>address, phone, fax, postCode, email, website.</t>
     </r>
+  </si>
+  <si>
+    <t>Thêm field thanh toán cho location: mastercard, tiền mặt, visa, Thẻ ATM Nội địa, sử dụng kỹ thuật sau http://zduck.com/2013/using-enum-flags-to-model-user-roles-in-csharp-and-sql/</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -141,17 +144,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1864,7 +1873,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1874,434 +1883,440 @@
     <col min="3" max="3" width="65.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>Task</t>
   </si>
@@ -71,7 +71,253 @@
     </r>
   </si>
   <si>
-    <t>Thêm field thanh toán cho location: mastercard, tiền mặt, visa, Thẻ ATM Nội địa, sử dụng kỹ thuật sau http://zduck.com/2013/using-enum-flags-to-model-user-roles-in-csharp-and-sql/</t>
+    <t>Thêm field thanh toán cho location: mastercard, tiền mặt, visa, Thẻ ATM Nội địa, sử dụng kỹ thuật 1 field kiểu int, tham khảo link sau http://zduck.com/2013/using-enum-flags-to-model-user-roles-in-csharp-and-sql/  http://eddmann.com/posts/using-bit-flags-and-enumsets-in-java/</t>
+  </si>
+  <si>
+    <t>Location Type</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Khách sạn</t>
+  </si>
+  <si>
+    <t>Resort</t>
+  </si>
+  <si>
+    <t>Khu nghĩ dưỡng</t>
+  </si>
+  <si>
+    <t>Motel</t>
+  </si>
+  <si>
+    <t>Nhà nghỉ</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Nhà hàng</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Cửa hàng thời trang</t>
+  </si>
+  <si>
+    <t>Cafe</t>
+  </si>
+  <si>
+    <t>Quán cà phê</t>
+  </si>
+  <si>
+    <t>FoodStall</t>
+  </si>
+  <si>
+    <t>Quán ăn</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>Tháp chăm</t>
+  </si>
+  <si>
+    <t>Pagoda</t>
+  </si>
+  <si>
+    <t>Chùa</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Nhà thờ</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Công viên</t>
+  </si>
+  <si>
+    <t>ATM</t>
+  </si>
+  <si>
+    <t>Trạm rút ATM</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Trụ sở ngân hàng</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Số taxi các hãng ở các tỉnh</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Các nơi khác?</t>
+  </si>
+  <si>
+    <t>Committee</t>
+  </si>
+  <si>
+    <t>Ủy ban, trình báo khi mất cấp...</t>
+  </si>
+  <si>
+    <t>Souvenir</t>
+  </si>
+  <si>
+    <t>Nơi bán đồ lưu niệm</t>
+  </si>
+  <si>
+    <t>GasStation</t>
+  </si>
+  <si>
+    <t>Trạm xăng</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Đảo</t>
+  </si>
+  <si>
+    <t>Peninsula</t>
+  </si>
+  <si>
+    <t>Bán đảo</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Vũ trường</t>
+  </si>
+  <si>
+    <t>Museum</t>
+  </si>
+  <si>
+    <t>Bảo tàng</t>
+  </si>
+  <si>
+    <t>Supermarket</t>
+  </si>
+  <si>
+    <t>Siêu thị</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Chợ có thể dùng chung type với siêu thị</t>
+  </si>
+  <si>
+    <t>Harbor</t>
+  </si>
+  <si>
+    <t>bến cảng, bến tàu, để bắt tàu đi ra đảo...</t>
+  </si>
+  <si>
+    <t>TrainStation</t>
+  </si>
+  <si>
+    <t>Bến xe lửa</t>
+  </si>
+  <si>
+    <t>CarStation</t>
+  </si>
+  <si>
+    <t>Bến xe khách</t>
+  </si>
+  <si>
+    <t>BusStation</t>
+  </si>
+  <si>
+    <t>Trạm xe bus</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>Trường học</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Bệnh viện</t>
+  </si>
+  <si>
+    <t>Karaoke</t>
+  </si>
+  <si>
+    <t>Nơi hát karaoke</t>
+  </si>
+  <si>
+    <t>Massage</t>
+  </si>
+  <si>
+    <t>Nơi massage</t>
+  </si>
+  <si>
+    <t>Guinness</t>
+  </si>
+  <si>
+    <t>Các nơi lập kỷ lục như cầu dài nhất.................., cáp treo cao nhất................</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Nơi làm đẹp</t>
+  </si>
+  <si>
+    <t>PublicTolet</t>
+  </si>
+  <si>
+    <t>Tolet công cộng</t>
+  </si>
+  <si>
+    <t>Moutain</t>
+  </si>
+  <si>
+    <t>Núi</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Sông</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>Bãi biển.</t>
+  </si>
+  <si>
+    <t>TourismSimple</t>
+  </si>
+  <si>
+    <t>Điểm du lịch đơn</t>
+  </si>
+  <si>
+    <t>TourismComplex</t>
+  </si>
+  <si>
+    <t>Khu du lịch tổ hợp</t>
+  </si>
+  <si>
+    <t>Sử dụng kỹ thuật trên để áp dụng cho type location, vì có những location gồm nhiều yếu tố như vừa là nhà hàng vừa là quán caphe, vừa có karaoke , sử dụng location type bên phải nha.</t>
   </si>
 </sst>
 </file>
@@ -434,7 +680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1870,9 +2116,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1885,10 +2131,12 @@
     <col min="5" max="5" width="15.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.85546875" style="2"/>
+    <col min="8" max="8" width="9.85546875" style="2"/>
+    <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -1911,7 +2159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1930,7 +2178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1949,7 +2197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1966,18 +2214,27 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1987,8 +2244,14 @@
       <c r="E6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1998,8 +2261,14 @@
       <c r="E7" s="9"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2009,8 +2278,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2020,8 +2295,14 @@
       <c r="E9" s="9"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2031,8 +2312,14 @@
       <c r="E10" s="9"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2042,8 +2329,14 @@
       <c r="E11" s="9"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2053,8 +2346,14 @@
       <c r="E12" s="9"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2064,8 +2363,14 @@
       <c r="E13" s="9"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2075,8 +2380,14 @@
       <c r="E14" s="9"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2086,8 +2397,14 @@
       <c r="E15" s="9"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2097,8 +2414,14 @@
       <c r="E16" s="9"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2108,8 +2431,14 @@
       <c r="E17" s="9"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2119,8 +2448,14 @@
       <c r="E18" s="9"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2130,8 +2465,14 @@
       <c r="E19" s="9"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2141,8 +2482,14 @@
       <c r="E20" s="9"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2152,8 +2499,14 @@
       <c r="E21" s="9"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2163,8 +2516,14 @@
       <c r="E22" s="9"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2174,8 +2533,14 @@
       <c r="E23" s="9"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2185,8 +2550,14 @@
       <c r="E24" s="9"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2196,8 +2567,14 @@
       <c r="E25" s="9"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2207,8 +2584,14 @@
       <c r="E26" s="9"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2218,8 +2601,14 @@
       <c r="E27" s="9"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2229,8 +2618,14 @@
       <c r="E28" s="9"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2240,8 +2635,14 @@
       <c r="E29" s="9"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2251,8 +2652,14 @@
       <c r="E30" s="9"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2262,8 +2669,14 @@
       <c r="E31" s="9"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2273,8 +2686,14 @@
       <c r="E32" s="9"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2284,8 +2703,14 @@
       <c r="E33" s="9"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -2295,8 +2720,14 @@
       <c r="E34" s="9"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -2306,8 +2737,14 @@
       <c r="E35" s="9"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -2317,6 +2754,84 @@
       <c r="E36" s="9"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
+      <c r="I36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>Task</t>
   </si>
@@ -317,7 +317,27 @@
     <t>Khu du lịch tổ hợp</t>
   </si>
   <si>
-    <t>Sử dụng kỹ thuật trên để áp dụng cho type location, vì có những location gồm nhiều yếu tố như vừa là nhà hàng vừa là quán caphe, vừa có karaoke , sử dụng location type bên phải nha.</t>
+    <t>Sử dụng kỹ thuật trên để áp dụng cho type location, vì có những location gồm nhiều yếu tố như vừa là nhà hàng vừa là quán caphe, vừa có karaoke , sử dụng location type bên phải nha. Tương tự áp dụng thêm field Tiện ích với các  giá trị sau:    Nên đặt trước (2^0)
+Có giao hàng (2^1)
+Cho mua về (2^2)
+Có wifi (2^3)
+Có chỗ chơi cho trẻ em (2^4)
+Có bàn ngoài trời (2^5)
+Có phòng riêng (2^6)
+Có máy lạnh (2^7)
+Giữ xe máy miễn phí (2^8)
+Tip cho nhân viên (2^9)
+Có chỗ đậu ôtô (2^10)
+Có khu vực hút thuốc (2^11)
+Có thẻ thành viên (2^12)
+Có xuất hóa đơn đỏ (2^13)
+Có hỗ trợ hội thảo (2^14)
+Có lò sưởi (2^15)
+Có hỗ trợ người khuyết tật (2^16)
+Có chiếu bóng đá? (2^17)</t>
+  </si>
+  <si>
+    <t>Thêm Field Sức chứa kiểu int cho location: Capacity</t>
   </si>
 </sst>
 </file>
@@ -680,7 +700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2118,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2214,7 +2234,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="277.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2238,11 +2258,17 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="I6" s="2" t="s">
         <v>15</v>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -337,7 +337,7 @@
 Có chiếu bóng đá? (2^17)</t>
   </si>
   <si>
-    <t>Thêm Field Sức chứa kiểu int cho location: Capacity</t>
+    <t>Thêm Field Sức chứa và số sao khách sạn kiểu int cho location: Capacity ,Star</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2138,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2254,7 +2254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -337,7 +337,7 @@
 Có chiếu bóng đá? (2^17)</t>
   </si>
   <si>
-    <t>Thêm Field Sức chứa và số sao khách sạn kiểu int cho location: Capacity ,Star</t>
+    <t>Thêm Field Sức chứa và số sao khách sạn, số phòng kiểu int cho location: Capacity ,Star, NumberRoom</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2139,7 +2139,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -317,6 +317,9 @@
     <t>Khu du lịch tổ hợp</t>
   </si>
   <si>
+    <t>Thêm Field Sức chứa và số sao khách sạn, số phòng kiểu int cho location: Capacity ,Star, NumberRoom</t>
+  </si>
+  <si>
     <t>Sử dụng kỹ thuật trên để áp dụng cho type location, vì có những location gồm nhiều yếu tố như vừa là nhà hàng vừa là quán caphe, vừa có karaoke , sử dụng location type bên phải nha. Tương tự áp dụng thêm field Tiện ích với các  giá trị sau:    Nên đặt trước (2^0)
 Có giao hàng (2^1)
 Cho mua về (2^2)
@@ -334,10 +337,7 @@
 Có hỗ trợ hội thảo (2^14)
 Có lò sưởi (2^15)
 Có hỗ trợ người khuyết tật (2^16)
-Có chiếu bóng đá? (2^17)</t>
-  </si>
-  <si>
-    <t>Thêm Field Sức chứa và số sao khách sạn, số phòng kiểu int cho location: Capacity ,Star, NumberRoom</t>
+Có chiếu bóng đá? (2^17)               Có nhạc sống? (2^18)</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2138,7 +2138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2242,7 +2242,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2262,7 +2262,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -320,7 +320,7 @@
     <t>Thêm Field Sức chứa và số sao khách sạn, số phòng kiểu int cho location: Capacity ,Star, NumberRoom</t>
   </si>
   <si>
-    <t>Sử dụng kỹ thuật trên để áp dụng cho type location, vì có những location gồm nhiều yếu tố như vừa là nhà hàng vừa là quán caphe, vừa có karaoke , sử dụng location type bên phải nha. Tương tự áp dụng thêm field Tiện ích với các  giá trị sau:    Nên đặt trước (2^0)
+    <t>Sử dụng kỹ thuật trên để áp dụng cho type location, vì có những location gồm nhiều yếu tố như vừa là nhà hàng vừa là quán caphe, vừa có karaoke ; có quán vừa là cafe vừa là bar sử dụng location type bên phải nha. Tương tự áp dụng thêm field Tiện ích với các  giá trị sau:    Nên đặt trước (2^0)
 Có giao hàng (2^1)
 Cho mua về (2^2)
 Có wifi (2^3)
@@ -337,7 +337,7 @@
 Có hỗ trợ hội thảo (2^14)
 Có lò sưởi (2^15)
 Có hỗ trợ người khuyết tật (2^16)
-Có chiếu bóng đá? (2^17)               Có nhạc sống? (2^18)</t>
+Có chiếu bóng đá? (2^17)               Có nhạc live? (2^18) Có nhạc DJ? (2^19)</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2138,7 +2138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
   <si>
     <t>Task</t>
   </si>
@@ -338,6 +338,12 @@
 Có lò sưởi (2^15)
 Có hỗ trợ người khuyết tật (2^16)
 Có chiếu bóng đá? (2^17)               Có nhạc live? (2^18) Có nhạc DJ? (2^19)</t>
+  </si>
+  <si>
+    <t>TeaRoom</t>
+  </si>
+  <si>
+    <t>Phòng trà</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,6 +433,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,7 +709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2136,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2859,6 +2868,14 @@
         <v>94</v>
       </c>
     </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I46" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -320,6 +320,12 @@
     <t>Thêm Field Sức chứa và số sao khách sạn, số phòng kiểu int cho location: Capacity ,Star, NumberRoom</t>
   </si>
   <si>
+    <t>TeaRoom</t>
+  </si>
+  <si>
+    <t>Phòng trà</t>
+  </si>
+  <si>
     <t>Sử dụng kỹ thuật trên để áp dụng cho type location, vì có những location gồm nhiều yếu tố như vừa là nhà hàng vừa là quán caphe, vừa có karaoke ; có quán vừa là cafe vừa là bar sử dụng location type bên phải nha. Tương tự áp dụng thêm field Tiện ích với các  giá trị sau:    Nên đặt trước (2^0)
 Có giao hàng (2^1)
 Cho mua về (2^2)
@@ -337,13 +343,7 @@
 Có hỗ trợ hội thảo (2^14)
 Có lò sưởi (2^15)
 Có hỗ trợ người khuyết tật (2^16)
-Có chiếu bóng đá? (2^17)               Có nhạc live? (2^18) Có nhạc DJ? (2^19)</t>
-  </si>
-  <si>
-    <t>TeaRoom</t>
-  </si>
-  <si>
-    <t>Phòng trà</t>
+Có chiếu bóng đá? (2^17)               Có nhạc live? (2^18) Có nhạc DJ? (2^19) Có tổ chức tiệc? (2^20)</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2147,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2251,7 +2251,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I46" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>Task</t>
   </si>
@@ -344,6 +344,12 @@
 Có lò sưởi (2^15)
 Có hỗ trợ người khuyết tật (2^16)
 Có chiếu bóng đá? (2^17)               Có nhạc live? (2^18) Có nhạc DJ? (2^19) Có tổ chức tiệc? (2^20)</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Đèo</t>
   </si>
 </sst>
 </file>
@@ -709,7 +715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2145,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2876,6 +2882,14 @@
         <v>97</v>
       </c>
     </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I47" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
   <si>
     <t>Task</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Shop</t>
   </si>
   <si>
-    <t>Cửa hàng thời trang</t>
-  </si>
-  <si>
     <t>Cafe</t>
   </si>
   <si>
@@ -161,12 +158,6 @@
     <t>Số taxi các hãng ở các tỉnh</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Các nơi khác?</t>
-  </si>
-  <si>
     <t>Committee</t>
   </si>
   <si>
@@ -216,9 +207,6 @@
   </si>
   <si>
     <t>Market</t>
-  </si>
-  <si>
-    <t>Chợ có thể dùng chung type với siêu thị</t>
   </si>
   <si>
     <t>Harbor</t>
@@ -350,6 +338,42 @@
   </si>
   <si>
     <t>Đèo</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Rạp phim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chợ </t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Hồ</t>
+  </si>
+  <si>
+    <t>Theatre</t>
+  </si>
+  <si>
+    <t>Nhà hát</t>
+  </si>
+  <si>
+    <t>Cửa hàng: điêu khắc, thời trang…</t>
+  </si>
+  <si>
+    <t>StreetVendor</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Rừng</t>
+  </si>
+  <si>
+    <t>Quán ăn vỉa hè</t>
   </si>
 </sst>
 </file>
@@ -373,12 +397,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -408,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,6 +471,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -715,7 +748,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2151,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2167,8 +2200,9 @@
     <col min="6" max="6" width="15.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="2"/>
-    <col min="9" max="9" width="14.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.85546875" style="2"/>
+    <col min="9" max="9" width="20.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="72.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2257,7 +2291,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2265,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2277,7 +2311,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2356,8 +2390,8 @@
       <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>24</v>
+      <c r="J10" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2371,10 +2405,10 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2388,10 +2422,10 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2405,10 +2439,10 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="I13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2422,10 +2456,10 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2438,11 +2472,11 @@
       <c r="E15" s="9"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2456,10 +2490,10 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="I16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2473,10 +2507,10 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="I17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2490,10 +2524,10 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="I18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2507,10 +2541,10 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2524,10 +2558,10 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="I20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2541,10 +2575,10 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="I21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2558,10 +2592,10 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="I22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2575,10 +2609,10 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="I23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2592,10 +2626,10 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="I24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2609,10 +2643,10 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="I25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2626,10 +2660,10 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="I26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2643,10 +2677,10 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="I27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2660,10 +2694,10 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="I28" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2677,10 +2711,10 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="I29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2694,10 +2728,10 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="I30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2711,10 +2745,10 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="I31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2728,10 +2762,10 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="I32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2745,10 +2779,10 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="I33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2762,10 +2796,10 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="I34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2779,10 +2813,10 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="I35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2796,98 +2830,138 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="I36" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I43" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I44" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I45" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I46" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J46" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J46" s="11" t="s">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I47" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I47" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I48" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I50" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I51" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I52" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
   <si>
     <t>Task</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>Quán ăn vỉa hè</t>
+  </si>
+  <si>
+    <t>finish</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2186,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E39" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2238,7 +2241,9 @@
       <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10" t="s">
         <v>9</v>
@@ -2257,7 +2262,9 @@
       <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="E3" s="9"/>
       <c r="F3" s="7" t="s">
         <v>11</v>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -751,7 +751,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2190,7 +2190,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
   <si>
     <t>Task</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>finish</t>
+  </si>
+  <si>
+    <t>Quán kem</t>
+  </si>
+  <si>
+    <t>IceCream</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -478,6 +484,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,7 +760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2187,10 +2196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2971,6 +2980,14 @@
         <v>107</v>
       </c>
     </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I53" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
   <si>
     <t>Task</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>IceCream</t>
+  </si>
+  <si>
+    <t>Thêm Cuisine (món ăn đặc trưng) : multitype cac nước</t>
   </si>
 </sst>
 </file>
@@ -760,7 +763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2198,8 +2201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2346,11 +2349,17 @@
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="I7" s="2" t="s">
         <v>17</v>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>Thêm Cuisine (món ăn đặc trưng) : multitype cac nước</t>
+  </si>
+  <si>
+    <t>Thêm OpenHours, CloseHours: kiểu time ; Thêm IsHoliday(có nghỉ lễ hay không). Thêm WaitingTime(Thời gian đợi): kiểu int</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2202,7 +2205,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2368,15 +2371,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="I8" s="2" t="s">
         <v>19</v>

--- a/trunk/Document/Requirements/Task.xlsx
+++ b/trunk/Document/Requirements/Task.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="170">
   <si>
     <t>Task</t>
   </si>
@@ -257,12 +257,6 @@
     <t>Nơi massage</t>
   </si>
   <si>
-    <t>Guinness</t>
-  </si>
-  <si>
-    <t>Các nơi lập kỷ lục như cầu dài nhất.................., cáp treo cao nhất................</t>
-  </si>
-  <si>
     <t>Spa</t>
   </si>
   <si>
@@ -293,18 +287,6 @@
     <t>Bãi biển.</t>
   </si>
   <si>
-    <t>TourismSimple</t>
-  </si>
-  <si>
-    <t>Điểm du lịch đơn</t>
-  </si>
-  <si>
-    <t>TourismComplex</t>
-  </si>
-  <si>
-    <t>Khu du lịch tổ hợp</t>
-  </si>
-  <si>
     <t>Thêm Field Sức chứa và số sao khách sạn, số phòng kiểu int cho location: Capacity ,Star, NumberRoom</t>
   </si>
   <si>
@@ -314,26 +296,6 @@
     <t>Phòng trà</t>
   </si>
   <si>
-    <t>Sử dụng kỹ thuật trên để áp dụng cho type location, vì có những location gồm nhiều yếu tố như vừa là nhà hàng vừa là quán caphe, vừa có karaoke ; có quán vừa là cafe vừa là bar sử dụng location type bên phải nha. Tương tự áp dụng thêm field Tiện ích với các  giá trị sau:    Nên đặt trước (2^0)
-Có giao hàng (2^1)
-Cho mua về (2^2)
-Có wifi (2^3)
-Có chỗ chơi cho trẻ em (2^4)
-Có bàn ngoài trời (2^5)
-Có phòng riêng (2^6)
-Có máy lạnh (2^7)
-Giữ xe máy miễn phí (2^8)
-Tip cho nhân viên (2^9)
-Có chỗ đậu ôtô (2^10)
-Có khu vực hút thuốc (2^11)
-Có thẻ thành viên (2^12)
-Có xuất hóa đơn đỏ (2^13)
-Có hỗ trợ hội thảo (2^14)
-Có lò sưởi (2^15)
-Có hỗ trợ người khuyết tật (2^16)
-Có chiếu bóng đá? (2^17)               Có nhạc live? (2^18) Có nhạc DJ? (2^19) Có tổ chức tiệc? (2^20)</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -364,18 +326,12 @@
     <t>Cửa hàng: điêu khắc, thời trang…</t>
   </si>
   <si>
-    <t>StreetVendor</t>
-  </si>
-  <si>
     <t>Forest</t>
   </si>
   <si>
     <t>Rừng</t>
   </si>
   <si>
-    <t>Quán ăn vỉa hè</t>
-  </si>
-  <si>
     <t>finish</t>
   </si>
   <si>
@@ -389,13 +345,208 @@
   </si>
   <si>
     <t>Thêm OpenHours, CloseHours: kiểu time ; Thêm IsHoliday(có nghỉ lễ hay không). Thêm WaitingTime(Thời gian đợi): kiểu int</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>Trạm xá, trạm y tế</t>
+  </si>
+  <si>
+    <t>BookStore</t>
+  </si>
+  <si>
+    <t>Nhà sách</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Thư viện</t>
+  </si>
+  <si>
+    <t>TouristArea</t>
+  </si>
+  <si>
+    <t>Khu du lịch</t>
+  </si>
+  <si>
+    <t>Mall</t>
+  </si>
+  <si>
+    <t>Trung tâm mua sắm</t>
+  </si>
+  <si>
+    <t>VehiclesRental</t>
+  </si>
+  <si>
+    <t>Nơi cho thuê xe đạp, xe máy, xe ô tô…</t>
+  </si>
+  <si>
+    <t>Utils</t>
+  </si>
+  <si>
+    <t>Reservation required</t>
+  </si>
+  <si>
+    <t>Nên đặt trước (2^0)</t>
+  </si>
+  <si>
+    <t>DeliveryServices</t>
+  </si>
+  <si>
+    <t>Có giao hàng (2^1)</t>
+  </si>
+  <si>
+    <t>TakeawayServices</t>
+  </si>
+  <si>
+    <t>Cho mua về (2^2)</t>
+  </si>
+  <si>
+    <t>Wifi free</t>
+  </si>
+  <si>
+    <t>Có wifi (2^3)</t>
+  </si>
+  <si>
+    <t>Playground for kids</t>
+  </si>
+  <si>
+    <t>Có chỗ chơi cho trẻ em (2^4)</t>
+  </si>
+  <si>
+    <t>Outdoor seats</t>
+  </si>
+  <si>
+    <t>Có bàn ngoài trời (2^5)</t>
+  </si>
+  <si>
+    <t>Private room</t>
+  </si>
+  <si>
+    <t>Có phòng riêng (2^6)</t>
+  </si>
+  <si>
+    <t>Air Conditioner</t>
+  </si>
+  <si>
+    <t>Có máy lạnh (2^7)</t>
+  </si>
+  <si>
+    <t>Free bike park</t>
+  </si>
+  <si>
+    <t>Giữ xe máy miễn phí (2^8)</t>
+  </si>
+  <si>
+    <t>Tips for staff</t>
+  </si>
+  <si>
+    <t>Tip cho nhân viên (2^9)</t>
+  </si>
+  <si>
+    <t>Car park</t>
+  </si>
+  <si>
+    <t>Có chỗ đậu ôtô (2^10)</t>
+  </si>
+  <si>
+    <t>Smoking zone</t>
+  </si>
+  <si>
+    <t>Có khu vực hút thuốc (2^11)</t>
+  </si>
+  <si>
+    <t>Member cards</t>
+  </si>
+  <si>
+    <t>Có thẻ thành viên (2^12)</t>
+  </si>
+  <si>
+    <t>Tax invoice available</t>
+  </si>
+  <si>
+    <t>Có xuất hóa đơn đỏ (2^13)</t>
+  </si>
+  <si>
+    <t>Seminar Support</t>
+  </si>
+  <si>
+    <t>Có hỗ trợ hội thảo (2^14)</t>
+  </si>
+  <si>
+    <t>Heat Conditioner</t>
+  </si>
+  <si>
+    <t>Có lò sưởi (2^15)</t>
+  </si>
+  <si>
+    <t>Disabled person support</t>
+  </si>
+  <si>
+    <t>Có hỗ trợ người khuyết tật (2^16)</t>
+  </si>
+  <si>
+    <t>Live sport tv</t>
+  </si>
+  <si>
+    <t>Có chiếu bóng đá? (2^17)</t>
+  </si>
+  <si>
+    <t>Live music</t>
+  </si>
+  <si>
+    <t>Có nhạc live? (2^18)</t>
+  </si>
+  <si>
+    <t>DJ Music</t>
+  </si>
+  <si>
+    <t>Có nhạc DJ? (2^19)</t>
+  </si>
+  <si>
+    <t>Party support</t>
+  </si>
+  <si>
+    <t>Có tổ chức tiệc? (2^20)</t>
+  </si>
+  <si>
+    <t>laundry services</t>
+  </si>
+  <si>
+    <t>Có dịch vụ hấp giặt (2^21)</t>
+  </si>
+  <si>
+    <t>Dành cho hotel</t>
+  </si>
+  <si>
+    <t>Booking plane service</t>
+  </si>
+  <si>
+    <t>Có book vé máy bay (2^22)</t>
+  </si>
+  <si>
+    <t>Change money services</t>
+  </si>
+  <si>
+    <t>Có đổi ngoại tệ ( 2^23)</t>
+  </si>
+  <si>
+    <t>shuttle service</t>
+  </si>
+  <si>
+    <t>Có dịch vụ đưa đón (2^24)</t>
+  </si>
+  <si>
+    <t>Sử dụng kỹ thuật trên để áp dụng cho type location, vì có những location gồm nhiều yếu tố như vừa là nhà hàng vừa là quán caphe, vừa có karaoke ; có quán vừa là cafe vừa là bar sử dụng location type bên phải nha. Tương tự áp dụng thêm field Tiện ích với các  giá trị sau:  THam khảo bên ô L5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -411,8 +562,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,8 +582,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -449,11 +612,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,6 +671,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,7 +959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2202,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2219,11 +2412,15 @@
     <col min="7" max="7" width="14.85546875" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="2"/>
     <col min="9" max="9" width="20.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="72.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.85546875" style="2"/>
+    <col min="10" max="10" width="37.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="2"/>
+    <col min="12" max="12" width="27.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -2246,7 +2443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2257,7 +2454,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10" t="s">
@@ -2267,7 +2464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2278,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="7" t="s">
@@ -2288,7 +2485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2305,7 +2502,7 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="277.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="277.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2313,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2324,16 +2521,19 @@
       <c r="I5" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>91</v>
+      <c r="C6" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2347,8 +2547,15 @@
       <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2356,7 +2563,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -2370,8 +2577,15 @@
       <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2379,7 +2593,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -2393,8 +2607,15 @@
       <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2410,8 +2631,15 @@
       <c r="J9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2425,10 +2653,17 @@
         <v>23</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2444,8 +2679,15 @@
       <c r="J11" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2461,8 +2703,15 @@
       <c r="J12" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2478,8 +2727,15 @@
       <c r="J13" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2495,8 +2751,15 @@
       <c r="J14" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2512,8 +2775,15 @@
       <c r="J15" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2529,8 +2799,15 @@
       <c r="J16" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2546,8 +2823,15 @@
       <c r="J17" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2563,8 +2847,15 @@
       <c r="J18" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2580,8 +2871,15 @@
       <c r="J19" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2597,8 +2895,15 @@
       <c r="J20" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2614,8 +2919,15 @@
       <c r="J21" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2631,8 +2943,15 @@
       <c r="J22" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2648,8 +2967,15 @@
       <c r="J23" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -2665,8 +2991,15 @@
       <c r="J24" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2682,8 +3015,15 @@
       <c r="J25" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2699,8 +3039,15 @@
       <c r="J26" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2716,8 +3063,17 @@
       <c r="J27" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2731,10 +3087,19 @@
         <v>58</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2750,8 +3115,17 @@
       <c r="J29" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2767,8 +3141,17 @@
       <c r="J30" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2785,7 +3168,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2912,98 +3295,106 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I42" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I44" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I45" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I46" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>96</v>
+      <c r="I46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I47" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I48" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J48" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I49" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I50" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="51" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I51" s="11" t="s">
+      <c r="I51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J51" s="11" t="s">
-        <v>108</v>
+      <c r="J51" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I52" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>107</v>
+      <c r="I52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="9:10" x14ac:dyDescent="0.2">
-      <c r="I53" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>110</v>
+      <c r="I53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.2">
+      <c r="I54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
